--- a/data/pca/factorExposure/factorExposure_2017-08-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02377296159865245</v>
+        <v>0.01000268239357766</v>
       </c>
       <c r="C2">
-        <v>0.0004721966354769765</v>
+        <v>0.04411779731716538</v>
       </c>
       <c r="D2">
-        <v>0.01776736887605097</v>
+        <v>-0.02970321287219841</v>
       </c>
       <c r="E2">
-        <v>-0.01127413396306447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0330575573439619</v>
+      </c>
+      <c r="F2">
+        <v>-0.01009926633696984</v>
+      </c>
+      <c r="G2">
+        <v>0.07404630556317826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01584375826071748</v>
+        <v>0.05642893665580835</v>
       </c>
       <c r="C3">
-        <v>0.05213196513748697</v>
+        <v>0.06711062774107196</v>
       </c>
       <c r="D3">
-        <v>0.0008383489432567015</v>
+        <v>-0.01465158432784422</v>
       </c>
       <c r="E3">
-        <v>0.01029354574907422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0992963028332146</v>
+      </c>
+      <c r="F3">
+        <v>-0.034887964739123</v>
+      </c>
+      <c r="G3">
+        <v>0.1588758205706815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02358294266606735</v>
+        <v>0.05995131929488611</v>
       </c>
       <c r="C4">
-        <v>0.0200267800161849</v>
+        <v>0.06190048926586669</v>
       </c>
       <c r="D4">
-        <v>0.06247727165250928</v>
+        <v>-0.02322678901481561</v>
       </c>
       <c r="E4">
-        <v>0.0131106742054414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01942040544718808</v>
+      </c>
+      <c r="F4">
+        <v>-0.007318308271327114</v>
+      </c>
+      <c r="G4">
+        <v>0.07276819753183809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01497225617391379</v>
+        <v>0.04116219978402792</v>
       </c>
       <c r="C6">
-        <v>0.009213833192553247</v>
+        <v>0.05196427853267899</v>
       </c>
       <c r="D6">
-        <v>0.08755052971079524</v>
+        <v>-0.01564827034990002</v>
       </c>
       <c r="E6">
-        <v>0.006172475916451586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.018933211456454</v>
+      </c>
+      <c r="F6">
+        <v>-0.01177225457498507</v>
+      </c>
+      <c r="G6">
+        <v>0.04817765102680732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01056381200161249</v>
+        <v>0.01999347356084652</v>
       </c>
       <c r="C7">
-        <v>0.006344945463781025</v>
+        <v>0.0398463004872617</v>
       </c>
       <c r="D7">
-        <v>0.03685905099434126</v>
+        <v>-0.01312796937128674</v>
       </c>
       <c r="E7">
-        <v>0.06070920208942731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006858298390195952</v>
+      </c>
+      <c r="F7">
+        <v>0.002255477517895654</v>
+      </c>
+      <c r="G7">
+        <v>0.1127904017522047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>2.293407304091121e-06</v>
+        <v>0.00151320369311207</v>
       </c>
       <c r="C8">
-        <v>0.0009823058411075716</v>
+        <v>0.02061117406577959</v>
       </c>
       <c r="D8">
-        <v>0.00313476122683198</v>
+        <v>-0.003682636069065637</v>
       </c>
       <c r="E8">
-        <v>0.009533662354869004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02308551588373236</v>
+      </c>
+      <c r="F8">
+        <v>-0.0169041869538777</v>
+      </c>
+      <c r="G8">
+        <v>0.04669056616559455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01638930751546664</v>
+        <v>0.03547752862684515</v>
       </c>
       <c r="C9">
-        <v>0.02083539838084454</v>
+        <v>0.04242953562563595</v>
       </c>
       <c r="D9">
-        <v>0.04683207418409265</v>
+        <v>-0.01586389524860609</v>
       </c>
       <c r="E9">
-        <v>0.00394735770570198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01386239944830577</v>
+      </c>
+      <c r="F9">
+        <v>-0.01361554856822332</v>
+      </c>
+      <c r="G9">
+        <v>0.07663008554664141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02027637915666532</v>
+        <v>0.09127011791883685</v>
       </c>
       <c r="C10">
-        <v>0.1642840552644751</v>
+        <v>-0.1856493028891912</v>
       </c>
       <c r="D10">
-        <v>-0.1134494108513175</v>
+        <v>0.01696856082325142</v>
       </c>
       <c r="E10">
-        <v>0.005101135636630322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0106043621945832</v>
+      </c>
+      <c r="F10">
+        <v>0.01927348853275568</v>
+      </c>
+      <c r="G10">
+        <v>0.05400862081350309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007245912769780472</v>
+        <v>0.03548369548131183</v>
       </c>
       <c r="C11">
-        <v>0.007076156203328511</v>
+        <v>0.05293658191165079</v>
       </c>
       <c r="D11">
-        <v>0.04025673502859359</v>
+        <v>-0.002222270186187731</v>
       </c>
       <c r="E11">
-        <v>-0.005464051662725533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007570134887555812</v>
+      </c>
+      <c r="F11">
+        <v>-0.02175761017520904</v>
+      </c>
+      <c r="G11">
+        <v>0.05828722519229322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006312245959852808</v>
+        <v>0.03699635110247853</v>
       </c>
       <c r="C12">
-        <v>0.01311012109935307</v>
+        <v>0.04785690095221957</v>
       </c>
       <c r="D12">
-        <v>0.04387163749313302</v>
+        <v>-0.006142967401570635</v>
       </c>
       <c r="E12">
-        <v>0.004298909073016396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001249013500877513</v>
+      </c>
+      <c r="F12">
+        <v>-0.002868366566705899</v>
+      </c>
+      <c r="G12">
+        <v>0.05405167293744089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02256193385113902</v>
+        <v>0.01790275033413678</v>
       </c>
       <c r="C13">
-        <v>0.01543842310269701</v>
+        <v>0.03392563729654465</v>
       </c>
       <c r="D13">
-        <v>0.008795375795703289</v>
+        <v>-0.02523459529837842</v>
       </c>
       <c r="E13">
-        <v>-0.007293964267825775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0251075250714178</v>
+      </c>
+      <c r="F13">
+        <v>-0.006567912822326203</v>
+      </c>
+      <c r="G13">
+        <v>0.08917481912695623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007897242660082914</v>
+        <v>0.010017976591322</v>
       </c>
       <c r="C14">
-        <v>0.01458335541807312</v>
+        <v>0.02567785315120854</v>
       </c>
       <c r="D14">
-        <v>0.01186826488642194</v>
+        <v>-0.008538370028569324</v>
       </c>
       <c r="E14">
-        <v>0.01236687320200379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004439974699409034</v>
+      </c>
+      <c r="F14">
+        <v>0.007590252649499266</v>
+      </c>
+      <c r="G14">
+        <v>0.07737510627708989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00154365486304432</v>
+        <v>0.03435016226821719</v>
       </c>
       <c r="C16">
-        <v>0.01294288818450666</v>
+        <v>0.04683180398737383</v>
       </c>
       <c r="D16">
-        <v>0.0466921935526252</v>
+        <v>-0.001807484033827997</v>
       </c>
       <c r="E16">
-        <v>0.003294825884149059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006668710637274727</v>
+      </c>
+      <c r="F16">
+        <v>-0.003444292118870067</v>
+      </c>
+      <c r="G16">
+        <v>0.06275779053547782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01422522737824731</v>
+        <v>0.02644281570251808</v>
       </c>
       <c r="C19">
-        <v>0.02389249368768129</v>
+        <v>0.0484958808619491</v>
       </c>
       <c r="D19">
-        <v>0.01802888557941673</v>
+        <v>-0.01653493363171849</v>
       </c>
       <c r="E19">
-        <v>0.01097391786011845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05607222909559535</v>
+      </c>
+      <c r="F19">
+        <v>-0.01733504099841249</v>
+      </c>
+      <c r="G19">
+        <v>0.1012047892330907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01111870921280888</v>
+        <v>0.01600131482715456</v>
       </c>
       <c r="C20">
-        <v>0.009346362610793052</v>
+        <v>0.03382479898222547</v>
       </c>
       <c r="D20">
-        <v>0.008091808752474334</v>
+        <v>-0.01320628440630868</v>
       </c>
       <c r="E20">
-        <v>-0.001597961392349705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02535439719994069</v>
+      </c>
+      <c r="F20">
+        <v>0.005645989111433307</v>
+      </c>
+      <c r="G20">
+        <v>0.08025725696572765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01503435225446687</v>
+        <v>0.01634153330608336</v>
       </c>
       <c r="C21">
-        <v>0.02334082439869546</v>
+        <v>0.036452059015165</v>
       </c>
       <c r="D21">
-        <v>0.02253369612651702</v>
+        <v>-0.01699373446034502</v>
       </c>
       <c r="E21">
-        <v>0.01320568502196989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03534273759238107</v>
+      </c>
+      <c r="F21">
+        <v>0.0004759575025193446</v>
+      </c>
+      <c r="G21">
+        <v>0.1082774936071963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004537992099357088</v>
+        <v>0.02812445329946173</v>
       </c>
       <c r="C24">
-        <v>0.00165976540742895</v>
+        <v>0.0498886423917233</v>
       </c>
       <c r="D24">
-        <v>0.04201144359749258</v>
+        <v>-0.007285788586866793</v>
       </c>
       <c r="E24">
-        <v>0.000187587055626112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004075665980979476</v>
+      </c>
+      <c r="F24">
+        <v>-0.01630428306373639</v>
+      </c>
+      <c r="G24">
+        <v>0.06251612996894206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01211202023546397</v>
+        <v>0.04296675617051821</v>
       </c>
       <c r="C25">
-        <v>0.01780205775172862</v>
+        <v>0.05631341186556121</v>
       </c>
       <c r="D25">
-        <v>0.04423085869748097</v>
+        <v>-0.01123270552747351</v>
       </c>
       <c r="E25">
-        <v>4.453022888209077e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003824821612166318</v>
+      </c>
+      <c r="F25">
+        <v>-0.01033843314902714</v>
+      </c>
+      <c r="G25">
+        <v>0.06737625168178552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02310842303950334</v>
+        <v>0.01625870269413572</v>
       </c>
       <c r="C26">
-        <v>0.01100408833995115</v>
+        <v>0.008278056418524618</v>
       </c>
       <c r="D26">
-        <v>-0.00735349222909715</v>
+        <v>-0.02312395391724276</v>
       </c>
       <c r="E26">
-        <v>0.01083782553288731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002344239576261291</v>
+      </c>
+      <c r="F26">
+        <v>0.007937139127527481</v>
+      </c>
+      <c r="G26">
+        <v>0.06463923819461191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04268644387551794</v>
+        <v>0.1155588848556039</v>
       </c>
       <c r="C28">
-        <v>0.2362510180901466</v>
+        <v>-0.2339774470140524</v>
       </c>
       <c r="D28">
-        <v>-0.1611548180554449</v>
+        <v>0.00800254548286356</v>
       </c>
       <c r="E28">
-        <v>0.02106914382382562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-9.843584064209485e-05</v>
+      </c>
+      <c r="F28">
+        <v>0.0200120293023644</v>
+      </c>
+      <c r="G28">
+        <v>0.06635574024747351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0082182517111831</v>
+        <v>0.01239771405962058</v>
       </c>
       <c r="C29">
-        <v>0.01806167459464968</v>
+        <v>0.01988412405868687</v>
       </c>
       <c r="D29">
-        <v>0.01025613743175116</v>
+        <v>-0.007342013411438362</v>
       </c>
       <c r="E29">
-        <v>0.007252067914577168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00680432731790095</v>
+      </c>
+      <c r="F29">
+        <v>0.01650819147683857</v>
+      </c>
+      <c r="G29">
+        <v>0.06731045855956282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02362714712452062</v>
+        <v>0.04795387256331416</v>
       </c>
       <c r="C30">
-        <v>0.00508267980824383</v>
+        <v>0.06237594907429721</v>
       </c>
       <c r="D30">
-        <v>0.05717881674590822</v>
+        <v>-0.02767273298353217</v>
       </c>
       <c r="E30">
-        <v>-0.05077348086429199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04559133826543476</v>
+      </c>
+      <c r="F30">
+        <v>-0.0494300591076679</v>
+      </c>
+      <c r="G30">
+        <v>0.06979806987468624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009691729054528676</v>
+        <v>0.05374359615463105</v>
       </c>
       <c r="C31">
-        <v>0.04271628225074522</v>
+        <v>0.03209241409234841</v>
       </c>
       <c r="D31">
-        <v>0.04141701441516273</v>
+        <v>-0.00304330740344941</v>
       </c>
       <c r="E31">
-        <v>0.01074047955848121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007688309403645631</v>
+      </c>
+      <c r="F31">
+        <v>0.0368932903111354</v>
+      </c>
+      <c r="G31">
+        <v>0.06334367610654111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006178822417724921</v>
+        <v>-0.0001027658968676934</v>
       </c>
       <c r="C32">
-        <v>0.01917303947945653</v>
+        <v>0.02894494758316132</v>
       </c>
       <c r="D32">
-        <v>-0.001907784945730687</v>
+        <v>0.004178237693065539</v>
       </c>
       <c r="E32">
-        <v>0.0422989590935557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01616813794199103</v>
+      </c>
+      <c r="F32">
+        <v>-0.04019534920393326</v>
+      </c>
+      <c r="G32">
+        <v>0.08620262587023274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01391103384247463</v>
+        <v>0.02947178974217218</v>
       </c>
       <c r="C33">
-        <v>0.02668992307521252</v>
+        <v>0.04611630376293914</v>
       </c>
       <c r="D33">
-        <v>0.01879388581745131</v>
+        <v>-0.01461696181514588</v>
       </c>
       <c r="E33">
-        <v>-0.02434444812687027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02933071251945068</v>
+      </c>
+      <c r="F33">
+        <v>-0.01859606371189853</v>
+      </c>
+      <c r="G33">
+        <v>0.09804902733441574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003984693830552158</v>
+        <v>0.04046684353471847</v>
       </c>
       <c r="C34">
-        <v>0.01883567664010533</v>
+        <v>0.06024583160440764</v>
       </c>
       <c r="D34">
-        <v>0.04822198427854035</v>
+        <v>0.004348078965434818</v>
       </c>
       <c r="E34">
-        <v>0.008312096637366821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001722840792918071</v>
+      </c>
+      <c r="F34">
+        <v>-0.02266505214613064</v>
+      </c>
+      <c r="G34">
+        <v>0.07015540587756251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01325523821064623</v>
+        <v>0.01638545468949772</v>
       </c>
       <c r="C36">
-        <v>0.02252050992700775</v>
+        <v>0.008992499901616697</v>
       </c>
       <c r="D36">
-        <v>0.002866714436562929</v>
+        <v>-0.01137850845493403</v>
       </c>
       <c r="E36">
-        <v>0.003830409694791804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0003307122118659056</v>
+      </c>
+      <c r="F36">
+        <v>0.008775875754131317</v>
+      </c>
+      <c r="G36">
+        <v>0.05721299276799321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003214786108420056</v>
+        <v>0.03367637339396049</v>
       </c>
       <c r="C38">
-        <v>0.03696912491170603</v>
+        <v>0.02798419023801536</v>
       </c>
       <c r="D38">
-        <v>0.03115988314928287</v>
+        <v>0.007668807212858895</v>
       </c>
       <c r="E38">
-        <v>0.005481735142863982</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00395290299976285</v>
+      </c>
+      <c r="F38">
+        <v>0.01354081477543827</v>
+      </c>
+      <c r="G38">
+        <v>0.0669496562456892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005064433604200314</v>
+        <v>0.03586650149597355</v>
       </c>
       <c r="C39">
-        <v>-0.01702540132844247</v>
+        <v>0.08163282805384733</v>
       </c>
       <c r="D39">
-        <v>0.08839376661698832</v>
+        <v>-0.01200784144423277</v>
       </c>
       <c r="E39">
-        <v>-0.01239861050650036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02295753193273034</v>
+      </c>
+      <c r="F39">
+        <v>-0.02841548874633856</v>
+      </c>
+      <c r="G39">
+        <v>0.0661295102338979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01273635255265226</v>
+        <v>0.02028003007483221</v>
       </c>
       <c r="C40">
-        <v>0.02372983720787732</v>
+        <v>0.03245638537567563</v>
       </c>
       <c r="D40">
-        <v>0.02883979138650186</v>
+        <v>-0.01341759234799518</v>
       </c>
       <c r="E40">
-        <v>0.002324969424695682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02010961929507249</v>
+      </c>
+      <c r="F40">
+        <v>-0.009802140165185678</v>
+      </c>
+      <c r="G40">
+        <v>0.06951282501950874</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006336210977084714</v>
+        <v>0.01666204476575752</v>
       </c>
       <c r="C41">
-        <v>0.02231510429697644</v>
+        <v>0.003565059794366625</v>
       </c>
       <c r="D41">
-        <v>-0.009538379417624388</v>
+        <v>-0.003772029582137371</v>
       </c>
       <c r="E41">
-        <v>0.004627959857026609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002188213301961001</v>
+      </c>
+      <c r="F41">
+        <v>0.01166376928508027</v>
+      </c>
+      <c r="G41">
+        <v>0.04394437756842666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09333991821395372</v>
+        <v>0.0128220416962122</v>
       </c>
       <c r="C42">
-        <v>-0.003690476470357962</v>
+        <v>0.03789436355873003</v>
       </c>
       <c r="D42">
-        <v>0.2533173946794109</v>
+        <v>-0.09413135968266512</v>
       </c>
       <c r="E42">
-        <v>-0.3900020623936006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03328433659565959</v>
+      </c>
+      <c r="F42">
+        <v>0.038599399282005</v>
+      </c>
+      <c r="G42">
+        <v>-0.1718137686870837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007857924485121534</v>
+        <v>0.0329834838951607</v>
       </c>
       <c r="C43">
-        <v>0.02656201093225679</v>
+        <v>0.01364368781207902</v>
       </c>
       <c r="D43">
-        <v>-0.01337583016373473</v>
+        <v>-0.005029536912148397</v>
       </c>
       <c r="E43">
-        <v>-0.004989060063345554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01042352380969913</v>
+      </c>
+      <c r="F43">
+        <v>0.003256108718036247</v>
+      </c>
+      <c r="G43">
+        <v>0.06469036216340526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003501873185542355</v>
+        <v>0.01877674215987632</v>
       </c>
       <c r="C44">
-        <v>0.007922440661727852</v>
+        <v>0.04856877875191529</v>
       </c>
       <c r="D44">
-        <v>0.0260960348158484</v>
+        <v>-0.005817851526266938</v>
       </c>
       <c r="E44">
-        <v>0.002099456488609094</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01681755556428821</v>
+      </c>
+      <c r="F44">
+        <v>0.00369927007921111</v>
+      </c>
+      <c r="G44">
+        <v>0.08217516594998651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01121623595034758</v>
+        <v>0.009266642877487867</v>
       </c>
       <c r="C46">
-        <v>0.01606115636444428</v>
+        <v>0.01617982896548576</v>
       </c>
       <c r="D46">
-        <v>0.01083994534273722</v>
+        <v>-0.01125927855509381</v>
       </c>
       <c r="E46">
-        <v>0.001238379855646016</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005646177834433317</v>
+      </c>
+      <c r="F46">
+        <v>0.01933488963590313</v>
+      </c>
+      <c r="G46">
+        <v>0.06656385271963351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004230135590114886</v>
+        <v>0.07871726806453939</v>
       </c>
       <c r="C47">
-        <v>0.05455514666360076</v>
+        <v>0.06277189340851964</v>
       </c>
       <c r="D47">
-        <v>0.05617169835053349</v>
+        <v>0.005381045347981783</v>
       </c>
       <c r="E47">
-        <v>0.007411997704853653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01112341582556699</v>
+      </c>
+      <c r="F47">
+        <v>0.05436571819453915</v>
+      </c>
+      <c r="G47">
+        <v>0.06208244151728082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004206437643277154</v>
+        <v>0.02247556771943951</v>
       </c>
       <c r="C48">
-        <v>0.02805674469671091</v>
+        <v>0.009879399269196832</v>
       </c>
       <c r="D48">
-        <v>0.01043549030617339</v>
+        <v>-0.0006505372215722266</v>
       </c>
       <c r="E48">
-        <v>0.004845989016886708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004039977539437597</v>
+      </c>
+      <c r="F48">
+        <v>0.02122105882452101</v>
+      </c>
+      <c r="G48">
+        <v>0.06477932428252509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006155061455587734</v>
+        <v>0.07915645573707523</v>
       </c>
       <c r="C50">
-        <v>0.0546949214957085</v>
+        <v>0.06395999045305606</v>
       </c>
       <c r="D50">
-        <v>0.06276703051408808</v>
+        <v>0.003612131173039585</v>
       </c>
       <c r="E50">
-        <v>0.03299870928926256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01537527910352878</v>
+      </c>
+      <c r="F50">
+        <v>0.05799291584318286</v>
+      </c>
+      <c r="G50">
+        <v>0.07756045765581919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007360284738099611</v>
+        <v>0.01623917893607808</v>
       </c>
       <c r="C51">
-        <v>0.01707255740044059</v>
+        <v>0.03112285223260933</v>
       </c>
       <c r="D51">
-        <v>-0.002760829731173953</v>
+        <v>-0.009314818738154176</v>
       </c>
       <c r="E51">
-        <v>0.005225135218391513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0131760943509452</v>
+      </c>
+      <c r="F51">
+        <v>-0.02401442382343062</v>
+      </c>
+      <c r="G51">
+        <v>0.09725391808095879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007524305235834186</v>
+        <v>0.08562949488642761</v>
       </c>
       <c r="C53">
-        <v>0.06625834832268571</v>
+        <v>0.07802237188674417</v>
       </c>
       <c r="D53">
-        <v>0.1185052340547628</v>
+        <v>0.004638551715273227</v>
       </c>
       <c r="E53">
-        <v>0.007080418701521988</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03442909701571899</v>
+      </c>
+      <c r="F53">
+        <v>0.05865001052784789</v>
+      </c>
+      <c r="G53">
+        <v>0.04662616844115822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001288142695697773</v>
+        <v>0.03353279498533766</v>
       </c>
       <c r="C54">
-        <v>0.03567517219592701</v>
+        <v>0.01394808936356495</v>
       </c>
       <c r="D54">
-        <v>-0.008033795947818542</v>
+        <v>0.002667906478260278</v>
       </c>
       <c r="E54">
-        <v>0.01214978109233629</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00333073448662443</v>
+      </c>
+      <c r="F54">
+        <v>0.008337719492696023</v>
+      </c>
+      <c r="G54">
+        <v>0.0730194513024373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003902265193560661</v>
+        <v>0.07474711619810651</v>
       </c>
       <c r="C55">
-        <v>0.04668032258748461</v>
+        <v>0.06667243611429906</v>
       </c>
       <c r="D55">
-        <v>0.1032718346090766</v>
+        <v>0.005545308521742722</v>
       </c>
       <c r="E55">
-        <v>-0.003899641867260066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02727159277577968</v>
+      </c>
+      <c r="F55">
+        <v>0.05823491317258263</v>
+      </c>
+      <c r="G55">
+        <v>0.03175361648506023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006627164446235498</v>
+        <v>0.1436563974509972</v>
       </c>
       <c r="C56">
-        <v>0.09291511574217914</v>
+        <v>0.1008921892720111</v>
       </c>
       <c r="D56">
-        <v>0.1505722174643071</v>
+        <v>0.01286789213262431</v>
       </c>
       <c r="E56">
-        <v>-0.00226136176601567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03867900262546167</v>
+      </c>
+      <c r="F56">
+        <v>0.07508074522540609</v>
+      </c>
+      <c r="G56">
+        <v>0.008569038329268917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02438582845548092</v>
+        <v>0.008479251471110944</v>
       </c>
       <c r="C57">
-        <v>0.01688189510291857</v>
+        <v>0.008504641363049107</v>
       </c>
       <c r="D57">
-        <v>0.04149987659970342</v>
+        <v>-0.02365016674096365</v>
       </c>
       <c r="E57">
-        <v>-0.0006960586231882744</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02769732423959636</v>
+      </c>
+      <c r="F57">
+        <v>-0.01184123248794188</v>
+      </c>
+      <c r="G57">
+        <v>0.03190597399853733</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01496789809830213</v>
+        <v>0.07799123976701704</v>
       </c>
       <c r="C58">
-        <v>0.09060083868834003</v>
+        <v>0.03308807114976747</v>
       </c>
       <c r="D58">
-        <v>0.0871312500490548</v>
+        <v>-0.01898938012445175</v>
       </c>
       <c r="E58">
-        <v>-0.2887584419643071</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9392345199909841</v>
+      </c>
+      <c r="F58">
+        <v>0.2395219285631257</v>
+      </c>
+      <c r="G58">
+        <v>-0.07380165564558051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03986900103197717</v>
+        <v>0.1546562335677741</v>
       </c>
       <c r="C59">
-        <v>0.2525985921612289</v>
+        <v>-0.2135784979826226</v>
       </c>
       <c r="D59">
-        <v>-0.1648944578905676</v>
+        <v>0.0144197761618823</v>
       </c>
       <c r="E59">
-        <v>0.01214825240664239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.00680561432165856</v>
+      </c>
+      <c r="F59">
+        <v>-0.00325936788160413</v>
+      </c>
+      <c r="G59">
+        <v>0.03507089833426017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04129395663039519</v>
+        <v>0.2888884241293788</v>
       </c>
       <c r="C60">
-        <v>0.1635279240630215</v>
+        <v>0.096576330664389</v>
       </c>
       <c r="D60">
-        <v>0.07768792129640714</v>
+        <v>-0.01278832646879688</v>
       </c>
       <c r="E60">
-        <v>-0.02471493044045999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001020087618784189</v>
+      </c>
+      <c r="F60">
+        <v>-0.3463412629504131</v>
+      </c>
+      <c r="G60">
+        <v>-0.1271057192588043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003467450917404529</v>
+        <v>0.03740849059781848</v>
       </c>
       <c r="C61">
-        <v>0.007931058085035355</v>
+        <v>0.06541793610885871</v>
       </c>
       <c r="D61">
-        <v>0.06314659837468703</v>
+        <v>-0.005449357223028707</v>
       </c>
       <c r="E61">
-        <v>-0.003615674347826185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01173138932689136</v>
+      </c>
+      <c r="F61">
+        <v>-0.0175073011443342</v>
+      </c>
+      <c r="G61">
+        <v>0.05788231364034042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007759620453221407</v>
+        <v>0.01529431891403087</v>
       </c>
       <c r="C63">
-        <v>0.009259981283998648</v>
+        <v>0.02832826001391214</v>
       </c>
       <c r="D63">
-        <v>0.008642158822830835</v>
+        <v>-0.007830334699254839</v>
       </c>
       <c r="E63">
-        <v>0.008072095146009121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003765995333806632</v>
+      </c>
+      <c r="F63">
+        <v>0.01790560594633174</v>
+      </c>
+      <c r="G63">
+        <v>0.06603019572391022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008692702938716173</v>
+        <v>0.05036249292027501</v>
       </c>
       <c r="C64">
-        <v>0.03130095272208967</v>
+        <v>0.04345505164403424</v>
       </c>
       <c r="D64">
-        <v>0.06376420535583936</v>
+        <v>-0.005645528019759946</v>
       </c>
       <c r="E64">
-        <v>-0.01861318547040007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004794506272093543</v>
+      </c>
+      <c r="F64">
+        <v>-0.002405617141281994</v>
+      </c>
+      <c r="G64">
+        <v>0.04985267961786993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01680488587253458</v>
+        <v>0.08217511132494543</v>
       </c>
       <c r="C65">
-        <v>0.008416337350471179</v>
+        <v>0.05698294011764651</v>
       </c>
       <c r="D65">
-        <v>0.1029792893452715</v>
+        <v>-0.01518522986732104</v>
       </c>
       <c r="E65">
-        <v>0.009587690438478891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01968434277338774</v>
+      </c>
+      <c r="F65">
+        <v>-0.02945036430190041</v>
+      </c>
+      <c r="G65">
+        <v>0.019495882675252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004867614860747653</v>
+        <v>0.05306760093627664</v>
       </c>
       <c r="C66">
-        <v>-0.01188715451302888</v>
+        <v>0.1118395288742282</v>
       </c>
       <c r="D66">
-        <v>0.1135037176461411</v>
+        <v>-0.01190581360397639</v>
       </c>
       <c r="E66">
-        <v>-0.01440207354791642</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02830086760722132</v>
+      </c>
+      <c r="F66">
+        <v>-0.03565586819119479</v>
+      </c>
+      <c r="G66">
+        <v>0.0704360204576009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.00327831492442398</v>
+        <v>0.05538048462701256</v>
       </c>
       <c r="C67">
-        <v>0.05779506263180703</v>
+        <v>0.0313214578429344</v>
       </c>
       <c r="D67">
-        <v>0.03676730376242749</v>
+        <v>0.005698972151939985</v>
       </c>
       <c r="E67">
-        <v>0.006455299768564623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002384557453913188</v>
+      </c>
+      <c r="F67">
+        <v>0.01491969384661661</v>
+      </c>
+      <c r="G67">
+        <v>0.06248301724766966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05722362149537155</v>
+        <v>0.139868346699768</v>
       </c>
       <c r="C68">
-        <v>0.2304164890784699</v>
+        <v>-0.2743980364492348</v>
       </c>
       <c r="D68">
-        <v>-0.1570674285803273</v>
+        <v>-0.003616283184465222</v>
       </c>
       <c r="E68">
-        <v>-0.005828660851434384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00605405890997104</v>
+      </c>
+      <c r="F68">
+        <v>0.0322065415466247</v>
+      </c>
+      <c r="G68">
+        <v>0.02633984068142313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0009810995096676098</v>
+        <v>0.08127184888935397</v>
       </c>
       <c r="C69">
-        <v>0.0420080353496893</v>
+        <v>0.06679049760709628</v>
       </c>
       <c r="D69">
-        <v>0.06251454912855237</v>
+        <v>0.009342234476233766</v>
       </c>
       <c r="E69">
-        <v>0.004038830946177946</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02855364704932461</v>
+      </c>
+      <c r="F69">
+        <v>0.0387327435261992</v>
+      </c>
+      <c r="G69">
+        <v>0.06316732559529266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04254782045252013</v>
+        <v>0.1301027369821526</v>
       </c>
       <c r="C71">
-        <v>0.2043158354600437</v>
+        <v>-0.2356859883529007</v>
       </c>
       <c r="D71">
-        <v>-0.1407634792358213</v>
+        <v>0.005173230129171976</v>
       </c>
       <c r="E71">
-        <v>0.004274477990891245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02383622728863728</v>
+      </c>
+      <c r="F71">
+        <v>0.009897718663688583</v>
+      </c>
+      <c r="G71">
+        <v>0.04366278702885239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0002197229260158789</v>
+        <v>0.08755254399475204</v>
       </c>
       <c r="C72">
-        <v>0.04858988240075234</v>
+        <v>0.07175711185150072</v>
       </c>
       <c r="D72">
-        <v>0.1298678729920323</v>
+        <v>0.007925814303043019</v>
       </c>
       <c r="E72">
-        <v>-0.007672111119980352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00280816033571062</v>
+      </c>
+      <c r="F72">
+        <v>-0.04388716840151118</v>
+      </c>
+      <c r="G72">
+        <v>0.05033092760097707</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05444238789527536</v>
+        <v>0.385632765274749</v>
       </c>
       <c r="C73">
-        <v>0.1892722816895266</v>
+        <v>0.1067272579521441</v>
       </c>
       <c r="D73">
-        <v>0.1706001451868082</v>
+        <v>-0.02167677627346411</v>
       </c>
       <c r="E73">
-        <v>-0.07612510368223381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07004527756139958</v>
+      </c>
+      <c r="F73">
+        <v>-0.5683101480002168</v>
+      </c>
+      <c r="G73">
+        <v>-0.2178932031046643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.00347455619193887</v>
+        <v>0.1143159417088908</v>
       </c>
       <c r="C74">
-        <v>0.08168887451851976</v>
+        <v>0.1112814054054234</v>
       </c>
       <c r="D74">
-        <v>0.1602630893440599</v>
+        <v>0.01025083942262691</v>
       </c>
       <c r="E74">
-        <v>-0.01511967192167736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01709764029861039</v>
+      </c>
+      <c r="F74">
+        <v>0.07366327963230258</v>
+      </c>
+      <c r="G74">
+        <v>0.05176265039674781</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01239789540075299</v>
+        <v>0.250524188141805</v>
       </c>
       <c r="C75">
-        <v>0.1883288457854648</v>
+        <v>0.1467761983104086</v>
       </c>
       <c r="D75">
-        <v>0.2852253244705098</v>
+        <v>0.02969345787195981</v>
       </c>
       <c r="E75">
-        <v>-0.0322187993988376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05673716031640424</v>
+      </c>
+      <c r="F75">
+        <v>0.1779204406101848</v>
+      </c>
+      <c r="G75">
+        <v>-0.06252265083847439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0006296135035220833</v>
+        <v>0.1276199392870499</v>
       </c>
       <c r="C76">
-        <v>0.1197732461516483</v>
+        <v>0.1139775950324419</v>
       </c>
       <c r="D76">
-        <v>0.2323194615806141</v>
+        <v>0.02056989826652954</v>
       </c>
       <c r="E76">
-        <v>0.01465343310989843</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04852428133168237</v>
+      </c>
+      <c r="F76">
+        <v>0.1179218476445614</v>
+      </c>
+      <c r="G76">
+        <v>0.02143395196892418</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01263973986168493</v>
+        <v>0.06772952822734446</v>
       </c>
       <c r="C77">
-        <v>0.02053764361406913</v>
+        <v>0.05723392618694745</v>
       </c>
       <c r="D77">
-        <v>0.04518770537932439</v>
+        <v>-0.01187904880416464</v>
       </c>
       <c r="E77">
-        <v>-0.01170080840545617</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04915321947051818</v>
+      </c>
+      <c r="F77">
+        <v>-0.009354681368016541</v>
+      </c>
+      <c r="G77">
+        <v>0.06869470800630322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004815290795621893</v>
+        <v>0.04703073763309589</v>
       </c>
       <c r="C78">
-        <v>0.01621111721336276</v>
+        <v>0.05188172877186765</v>
       </c>
       <c r="D78">
-        <v>0.06389833723088464</v>
+        <v>-0.005247754116576697</v>
       </c>
       <c r="E78">
-        <v>-0.007731443316241894</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02162893856849051</v>
+      </c>
+      <c r="F78">
+        <v>-0.03365486066672994</v>
+      </c>
+      <c r="G78">
+        <v>0.0696347099446185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01621058194949197</v>
+        <v>0.05754759898260519</v>
       </c>
       <c r="C80">
-        <v>0.09136974331853441</v>
+        <v>0.06385458543827978</v>
       </c>
       <c r="D80">
-        <v>0.2142540929531082</v>
+        <v>-0.01078016787603516</v>
       </c>
       <c r="E80">
-        <v>0.8468231309516253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02822365270299329</v>
+      </c>
+      <c r="F80">
+        <v>-0.01853303036707363</v>
+      </c>
+      <c r="G80">
+        <v>0.702113129109839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008243394526407627</v>
+        <v>0.142461954657135</v>
       </c>
       <c r="C81">
-        <v>0.1148496744150308</v>
+        <v>0.08903088029316408</v>
       </c>
       <c r="D81">
-        <v>0.1719544597831074</v>
+        <v>0.01530586911407293</v>
       </c>
       <c r="E81">
-        <v>0.0003496563880043359</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03532547754439508</v>
+      </c>
+      <c r="F81">
+        <v>0.1272219825667174</v>
+      </c>
+      <c r="G81">
+        <v>0.01386631699459151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1197315250472116</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05912893062684944</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006203538030117716</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08243598262955007</v>
+      </c>
+      <c r="F82">
+        <v>0.02136178538638066</v>
+      </c>
+      <c r="G82">
+        <v>0.03633095738746262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007474080274448226</v>
+        <v>0.03318846719377072</v>
       </c>
       <c r="C83">
-        <v>0.02222819557460133</v>
+        <v>0.02072879155670028</v>
       </c>
       <c r="D83">
-        <v>0.02226815038494852</v>
+        <v>-0.005740579252999695</v>
       </c>
       <c r="E83">
-        <v>0.001910964293863501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02954170560758495</v>
+      </c>
+      <c r="F83">
+        <v>-0.03787180896633979</v>
+      </c>
+      <c r="G83">
+        <v>0.0499846317961742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01861446556010971</v>
+        <v>0.2183129534724778</v>
       </c>
       <c r="C85">
-        <v>0.1480185462171264</v>
+        <v>0.1423252146593075</v>
       </c>
       <c r="D85">
-        <v>0.2636345295194441</v>
+        <v>0.01739513463538981</v>
       </c>
       <c r="E85">
-        <v>-0.03098014764499882</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09625849991743637</v>
+      </c>
+      <c r="F85">
+        <v>0.138275645070022</v>
+      </c>
+      <c r="G85">
+        <v>-0.1080137200274291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008384625248662016</v>
+        <v>0.01698246636132359</v>
       </c>
       <c r="C86">
-        <v>0.03031372689986272</v>
+        <v>0.02148608118397533</v>
       </c>
       <c r="D86">
-        <v>0.005735179245739982</v>
+        <v>-0.01086181443459475</v>
       </c>
       <c r="E86">
-        <v>-0.02799471441155373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04002564130089976</v>
+      </c>
+      <c r="F86">
+        <v>-0.04156519371819602</v>
+      </c>
+      <c r="G86">
+        <v>0.1324932960860377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007828555412161157</v>
+        <v>0.02384120531347832</v>
       </c>
       <c r="C87">
-        <v>0.01297577995805011</v>
+        <v>0.02475270593712458</v>
       </c>
       <c r="D87">
-        <v>0.04130583808943472</v>
+        <v>-0.01081651844865275</v>
       </c>
       <c r="E87">
-        <v>-0.008830712529635807</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08363865924403122</v>
+      </c>
+      <c r="F87">
+        <v>-0.02105637777443653</v>
+      </c>
+      <c r="G87">
+        <v>0.09375094605432635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0282222250210126</v>
+        <v>0.09106860319654189</v>
       </c>
       <c r="C88">
-        <v>0.03531931890323881</v>
+        <v>0.06330749854045203</v>
       </c>
       <c r="D88">
-        <v>0.0342084731957235</v>
+        <v>-0.02286208878383589</v>
       </c>
       <c r="E88">
-        <v>0.004729988930232879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01356080353534935</v>
+      </c>
+      <c r="F88">
+        <v>0.02158828620064504</v>
+      </c>
+      <c r="G88">
+        <v>0.06408109775118784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07926826436250151</v>
+        <v>0.215748670791393</v>
       </c>
       <c r="C89">
-        <v>0.3658640838412556</v>
+        <v>-0.3745272845270844</v>
       </c>
       <c r="D89">
-        <v>-0.2432502608034972</v>
+        <v>0.004062529563295715</v>
       </c>
       <c r="E89">
-        <v>0.007696011926045036</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02280323220516225</v>
+      </c>
+      <c r="F89">
+        <v>0.02465690343747665</v>
+      </c>
+      <c r="G89">
+        <v>0.04694566831322808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06069347575074967</v>
+        <v>0.1938792359294172</v>
       </c>
       <c r="C90">
-        <v>0.2834387438129427</v>
+        <v>-0.3336507233673993</v>
       </c>
       <c r="D90">
-        <v>-0.2166844995396181</v>
+        <v>0.008362370616989341</v>
       </c>
       <c r="E90">
-        <v>-0.006267576834777171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02093389359895334</v>
+      </c>
+      <c r="F90">
+        <v>0.04889964959010207</v>
+      </c>
+      <c r="G90">
+        <v>0.01641597948338255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008177734587398313</v>
+        <v>0.195324223088617</v>
       </c>
       <c r="C91">
-        <v>0.1624127875839961</v>
+        <v>0.135789093368443</v>
       </c>
       <c r="D91">
-        <v>0.2435125032523139</v>
+        <v>0.02344551095531319</v>
       </c>
       <c r="E91">
-        <v>-0.003278859474117304</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07244266259154934</v>
+      </c>
+      <c r="F91">
+        <v>0.1565241562020847</v>
+      </c>
+      <c r="G91">
+        <v>0.002730037976510628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02784103082989408</v>
+        <v>0.1962801240685008</v>
       </c>
       <c r="C92">
-        <v>0.3085474009346925</v>
+        <v>-0.2673208924721374</v>
       </c>
       <c r="D92">
-        <v>-0.09575344392211953</v>
+        <v>0.04341792113273341</v>
       </c>
       <c r="E92">
-        <v>-0.004041188566142976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01265280546478562</v>
+      </c>
+      <c r="F92">
+        <v>0.05561148727755143</v>
+      </c>
+      <c r="G92">
+        <v>0.1066188266943252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0592347470866874</v>
+        <v>0.2194353762430917</v>
       </c>
       <c r="C93">
-        <v>0.3136158498340649</v>
+        <v>-0.3277582196973033</v>
       </c>
       <c r="D93">
-        <v>-0.2059186574139638</v>
+        <v>0.01466425628960232</v>
       </c>
       <c r="E93">
-        <v>-0.03158532052090506</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.006068041848249805</v>
+      </c>
+      <c r="F93">
+        <v>0.03450037100186904</v>
+      </c>
+      <c r="G93">
+        <v>0.01493227451082069</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03189740900065804</v>
+        <v>0.3170254016042464</v>
       </c>
       <c r="C94">
-        <v>0.1910649815503108</v>
+        <v>0.1645860776658372</v>
       </c>
       <c r="D94">
-        <v>0.2393661481009103</v>
+        <v>0.01677215439892677</v>
       </c>
       <c r="E94">
-        <v>-0.02655510999408862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1608048591646359</v>
+      </c>
+      <c r="F94">
+        <v>0.4884680834387035</v>
+      </c>
+      <c r="G94">
+        <v>-0.2457184736168155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004087823276190334</v>
+        <v>0.09746899801124095</v>
       </c>
       <c r="C95">
-        <v>0.04146102297638742</v>
+        <v>0.08632814405554398</v>
       </c>
       <c r="D95">
-        <v>0.08866993727354032</v>
+        <v>0.007692272820936495</v>
       </c>
       <c r="E95">
-        <v>-0.1316920196813244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06936409182692671</v>
+      </c>
+      <c r="F95">
+        <v>-0.1764490677023482</v>
+      </c>
+      <c r="G95">
+        <v>-0.03107973949158727</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01566087926990316</v>
+        <v>0.2004677383810926</v>
       </c>
       <c r="C98">
-        <v>0.1692248681309008</v>
+        <v>0.04336449653915945</v>
       </c>
       <c r="D98">
-        <v>0.1178626647537964</v>
+        <v>0.01257407421401809</v>
       </c>
       <c r="E98">
-        <v>-0.05822617628333919</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06768881812586561</v>
+      </c>
+      <c r="F98">
+        <v>-0.2463151585169419</v>
+      </c>
+      <c r="G98">
+        <v>-0.03175912266095504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008002758088654133</v>
+        <v>0.01220824523285303</v>
       </c>
       <c r="C101">
-        <v>0.0177561355829486</v>
+        <v>0.0198272890402937</v>
       </c>
       <c r="D101">
-        <v>0.009998825892007762</v>
+        <v>-0.007165041037892305</v>
       </c>
       <c r="E101">
-        <v>0.0077085970299458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007058870163806501</v>
+      </c>
+      <c r="F101">
+        <v>0.01755882255002647</v>
+      </c>
+      <c r="G101">
+        <v>0.06699179862612954</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01843030656793198</v>
+        <v>0.1201665415880913</v>
       </c>
       <c r="C102">
-        <v>0.08372033144978183</v>
+        <v>0.08209430601861012</v>
       </c>
       <c r="D102">
-        <v>0.1257273185786256</v>
+        <v>-0.001386738050920399</v>
       </c>
       <c r="E102">
-        <v>-0.008413286892850301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03248401192455388</v>
+      </c>
+      <c r="F102">
+        <v>0.04108363239333378</v>
+      </c>
+      <c r="G102">
+        <v>-0.006171079013157493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002001663374869143</v>
+        <v>0.003341921910054658</v>
       </c>
       <c r="C103">
-        <v>0.01208542157480402</v>
+        <v>0.002645738111970461</v>
       </c>
       <c r="D103">
-        <v>0.02084475524681905</v>
+        <v>-0.0001114670793365237</v>
       </c>
       <c r="E103">
-        <v>0.0142516049046817</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002139062415056982</v>
+      </c>
+      <c r="F103">
+        <v>0.005456593265682181</v>
+      </c>
+      <c r="G103">
+        <v>0.01326396528315521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9760843850808972</v>
+        <v>0.0237218433962427</v>
       </c>
       <c r="C104">
-        <v>-0.1709322336241139</v>
+        <v>-0.03607400757945149</v>
       </c>
       <c r="D104">
-        <v>-0.005681019562351355</v>
+        <v>-0.9875670634767111</v>
       </c>
       <c r="E104">
-        <v>0.03590446468243738</v>
+        <v>0.04324059793299428</v>
+      </c>
+      <c r="F104">
+        <v>0.04061413984020536</v>
+      </c>
+      <c r="G104">
+        <v>-0.01836526666565233</v>
       </c>
     </row>
   </sheetData>
